--- a/QLSV_Library/Database.xlsx
+++ b/QLSV_Library/Database.xlsx
@@ -16,7 +16,10 @@
     <sheet name="Lop" sheetId="2" r:id="rId2"/>
     <sheet name="SinhVien" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <definedNames>
+    <definedName name="TOTNGHIEP">SinhVien!$G$4</definedName>
+  </definedNames>
+  <calcPr calcId="152511" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>CT</t>
   </si>
@@ -98,6 +101,18 @@
   </si>
   <si>
     <t>b123456</t>
+  </si>
+  <si>
+    <t>NAM</t>
+  </si>
+  <si>
+    <t>NU</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>NO</t>
   </si>
 </sst>
 </file>
@@ -523,23 +538,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
     <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" customWidth="1"/>
     <col min="4" max="4" width="40.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="2"/>
     <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -558,11 +573,14 @@
       <c r="F1" s="1">
         <v>34857</v>
       </c>
-      <c r="G1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -581,8 +599,11 @@
       <c r="F2" s="1">
         <v>36526</v>
       </c>
-      <c r="G2" t="b">
-        <v>0</v>
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/QLSV_Library/Database.xlsx
+++ b/QLSV_Library/Database.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
   <si>
     <t>CT</t>
   </si>
@@ -64,15 +64,9 @@
     <t>Lê Quang Duy Minh</t>
   </si>
   <si>
-    <t>12/2 Khu Phố 3 Phường Trảng Dài Tỉnh Đồng Nai</t>
-  </si>
-  <si>
     <t>Huỳnh Hải Đăng</t>
   </si>
   <si>
-    <t>Phường Trảng Dài</t>
-  </si>
-  <si>
     <t>Cong Nghe Thong Tin 1</t>
   </si>
   <si>
@@ -113,16 +107,45 @@
   </si>
   <si>
     <t>NO</t>
+  </si>
+  <si>
+    <t>ngokgnekboy@gmail.com</t>
+  </si>
+  <si>
+    <t>helloboy@gmail.com</t>
+  </si>
+  <si>
+    <t>Huỳnh Hải Dũng</t>
+  </si>
+  <si>
+    <t>btx Tỉnh Đồng Nai</t>
+  </si>
+  <si>
+    <t>Tỉnh Bình Dương</t>
+  </si>
+  <si>
+    <t>Cà Mau</t>
+  </si>
+  <si>
+    <t>helloboy1@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -145,15 +168,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -493,20 +519,23 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="22.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>2017</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -514,10 +543,10 @@
         <v>2017</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -525,10 +554,10 @@
         <v>2017</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -538,10 +567,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -549,14 +578,15 @@
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
     <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.5703125" customWidth="1"/>
-    <col min="4" max="4" width="40.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="50.140625" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="2"/>
     <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
@@ -565,49 +595,86 @@
         <v>767350000</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F1" s="1">
         <v>34857</v>
       </c>
       <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2">
         <v>33213123</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F2" s="1">
         <v>36526</v>
       </c>
       <c r="G2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H2" t="s">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3">
+        <v>33213123</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="1">
+        <v>36526</v>
+      </c>
+      <c r="G3" t="s">
         <v>25</v>
       </c>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I1" r:id="rId1"/>
+    <hyperlink ref="I2" r:id="rId2"/>
+    <hyperlink ref="I3" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>